--- a/REGULAR/OJT/NEW DONE/ANGCAYA, JUANITO.xlsx
+++ b/REGULAR/OJT/NEW DONE/ANGCAYA, JUANITO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07AF6C7-8269-47DF-85BD-E586B32BF690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6067C1B-25BA-4520-A74D-C43388B58100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="296">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>3/13-17/2023</t>
-  </si>
-  <si>
-    <t>Leave transfer from CEO as of May 31,19998</t>
   </si>
   <si>
     <t>UT(0-2-5)</t>
@@ -928,10 +925,16 @@
     </r>
   </si>
   <si>
-    <t>TOTAL VL = 30.123</t>
-  </si>
-  <si>
-    <t>TOTAL SL = 210.417</t>
+    <t>Leave transfer from CEO as of May 31,1998</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>TOTAL VL = 77.486</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 340.650</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,6 +990,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1176,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,6 +1350,27 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,24 +1403,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1999,10 +2013,10 @@
   </sheetPr>
   <dimension ref="A2:K421"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1068" topLeftCell="A402" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="R421" sqref="R421"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1836" topLeftCell="A399" activePane="bottomLeft"/>
+      <selection activeCell="I9" activeCellId="1" sqref="E9 I9"/>
+      <selection pane="bottomLeft" activeCell="D412" sqref="D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2024,62 +2038,62 @@
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="58"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2105,18 +2119,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2161,9 +2175,9 @@
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="13">
+      <c r="E9" s="62">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.122999999999934</v>
+        <v>77.485999999999933</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2171,9 +2185,9 @@
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="13">
+      <c r="I9" s="62">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>210.41699999999997</v>
+        <v>340.65</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2181,22 +2195,26 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="54" t="s">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13">
+        <v>47.363</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="13">
+        <v>130.233</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="38">
@@ -2215,7 +2233,7 @@
         <v>35947</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -2239,7 +2257,7 @@
         <v>35977</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -2257,13 +2275,13 @@
       <c r="I13" s="13"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="38">
@@ -2305,7 +2323,7 @@
         <v>36039</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -2347,7 +2365,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2355,7 +2373,7 @@
         <v>36100</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -2397,13 +2415,13 @@
       <c r="I19" s="13"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="38">
@@ -2442,7 +2460,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -2467,7 +2485,7 @@
         <v>36161</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -2509,7 +2527,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2517,7 +2535,7 @@
         <v>36220</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -2559,7 +2577,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2567,7 +2585,7 @@
         <v>36281</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -2591,7 +2609,7 @@
         <v>36312</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -2615,7 +2633,7 @@
         <v>36342</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -2657,13 +2675,13 @@
       <c r="I30" s="13"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="38">
@@ -2685,7 +2703,7 @@
         <v>36404</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -2707,7 +2725,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="38">
@@ -2747,13 +2765,13 @@
       <c r="I34" s="13"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="38">
@@ -2775,7 +2793,7 @@
         <v>36465</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -2799,7 +2817,7 @@
         <v>36495</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -2821,7 +2839,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="38">
@@ -2840,7 +2858,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2883,13 +2901,13 @@
       <c r="I40" s="13"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="38">
@@ -2908,7 +2926,7 @@
         <v>36557</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -2932,7 +2950,7 @@
         <v>36586</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -2976,7 +2994,7 @@
         <v>36647</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3000,7 +3018,7 @@
         <v>36678</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -3024,7 +3042,7 @@
         <v>36708</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -3048,7 +3066,7 @@
         <v>36739</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -3066,13 +3084,13 @@
       <c r="I48" s="13"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="38">
@@ -3094,7 +3112,7 @@
         <v>36770</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -3112,13 +3130,13 @@
       <c r="I50" s="13"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="38">
@@ -3140,7 +3158,7 @@
         <v>36800</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -3158,13 +3176,13 @@
       <c r="I52" s="13"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="38"/>
@@ -3186,7 +3204,7 @@
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="38">
@@ -3208,7 +3226,7 @@
         <v>36831</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -3232,7 +3250,7 @@
         <v>36861</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
@@ -3253,7 +3271,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3278,7 +3296,7 @@
         <v>36892</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -3302,7 +3320,7 @@
         <v>36923</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
@@ -3326,7 +3344,7 @@
         <v>36951</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -3388,13 +3406,13 @@
       <c r="I62" s="13"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="38">
@@ -3416,7 +3434,7 @@
         <v>37043</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -3440,7 +3458,7 @@
         <v>37073</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -3464,7 +3482,7 @@
         <v>37104</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -3482,13 +3500,13 @@
       <c r="I66" s="13"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="38">
@@ -3530,7 +3548,7 @@
         <v>37165</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -3554,7 +3572,7 @@
         <v>37196</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -3578,7 +3596,7 @@
         <v>37226</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
@@ -3596,12 +3614,12 @@
       <c r="I71" s="13"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -3626,7 +3644,7 @@
         <v>37257</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -3650,7 +3668,7 @@
         <v>37288</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -3674,7 +3692,7 @@
         <v>37316</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -3716,13 +3734,13 @@
       <c r="I76" s="13"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="38">
@@ -3741,7 +3759,7 @@
         <v>37377</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -3845,7 +3863,7 @@
         <v>37530</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -3869,7 +3887,7 @@
         <v>37561</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
@@ -3914,7 +3932,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3959,7 +3977,7 @@
         <v>37653</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -3975,7 +3993,7 @@
       <c r="I88" s="13"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4003,7 +4021,7 @@
         <v>37712</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -4027,7 +4045,7 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="38">
@@ -4067,13 +4085,13 @@
       <c r="I92" s="13"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="38">
@@ -4095,7 +4113,7 @@
         <v>37773</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -4139,7 +4157,7 @@
         <v>37834</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -4163,7 +4181,7 @@
         <v>37865</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -4187,7 +4205,7 @@
         <v>37895</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -4229,13 +4247,13 @@
       <c r="I99" s="13"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="38">
@@ -4279,7 +4297,7 @@
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="38">
@@ -4298,7 +4316,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4323,7 +4341,7 @@
         <v>37987</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" s="13">
         <v>1.25</v>
@@ -4347,7 +4365,7 @@
         <v>38018</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -4371,7 +4389,7 @@
         <v>38047</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -4395,7 +4413,7 @@
         <v>38078</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -4419,7 +4437,7 @@
         <v>38108</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="13">
         <v>1.25</v>
@@ -4443,7 +4461,7 @@
         <v>38139</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -4467,7 +4485,7 @@
         <v>38169</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
@@ -4511,7 +4529,7 @@
         <v>38231</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
@@ -4535,7 +4553,7 @@
         <v>38261</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -4559,7 +4577,7 @@
         <v>38292</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -4601,7 +4619,7 @@
       <c r="I115" s="13"/>
       <c r="J115" s="11"/>
       <c r="K115" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -4623,13 +4641,13 @@
       <c r="I116" s="13"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="38">
@@ -4648,7 +4666,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4673,7 +4691,7 @@
         <v>38353</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -4697,7 +4715,7 @@
         <v>38384</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -4721,7 +4739,7 @@
         <v>38412</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -4763,13 +4781,13 @@
       <c r="I122" s="13"/>
       <c r="J122" s="11"/>
       <c r="K122" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="38">
@@ -4788,7 +4806,7 @@
         <v>38473</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -4812,7 +4830,7 @@
         <v>38504</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -4856,7 +4874,7 @@
         <v>38565</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
@@ -4880,7 +4898,7 @@
         <v>38596</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -4904,7 +4922,7 @@
         <v>38626</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -4946,13 +4964,13 @@
       <c r="I130" s="13"/>
       <c r="J130" s="11"/>
       <c r="K130" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="38">
@@ -4971,7 +4989,7 @@
         <v>38687</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C132" s="13">
         <v>1.25</v>
@@ -4989,13 +5007,13 @@
       <c r="I132" s="13"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="38">
@@ -5011,7 +5029,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5114,7 +5132,7 @@
       <c r="I138" s="13"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -5160,7 +5178,7 @@
       <c r="I140" s="13"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -5182,7 +5200,7 @@
       <c r="I141" s="13"/>
       <c r="J141" s="11"/>
       <c r="K141" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -5248,7 +5266,7 @@
       <c r="I144" s="13"/>
       <c r="J144" s="11"/>
       <c r="K144" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -5256,7 +5274,7 @@
         <v>38991</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -5274,7 +5292,7 @@
       <c r="I145" s="13"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -5300,7 +5318,7 @@
       <c r="I146" s="13"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -5308,7 +5326,7 @@
         <v>39052</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C147" s="13">
         <v>1.25</v>
@@ -5329,7 +5347,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5372,13 +5390,13 @@
       <c r="I149" s="13"/>
       <c r="J149" s="11"/>
       <c r="K149" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="38">
@@ -5418,13 +5436,13 @@
       <c r="I151" s="13"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="38">
@@ -5446,7 +5464,7 @@
         <v>39142</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -5470,7 +5488,7 @@
         <v>39173</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -5512,7 +5530,7 @@
       <c r="I155" s="13"/>
       <c r="J155" s="11"/>
       <c r="K155" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -5532,13 +5550,13 @@
       <c r="I156" s="13"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="38">
@@ -5578,13 +5596,13 @@
       <c r="I158" s="13"/>
       <c r="J158" s="11"/>
       <c r="K158" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="38">
@@ -5624,13 +5642,13 @@
       <c r="I160" s="13"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="38"/>
@@ -5652,7 +5670,7 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="38">
@@ -5674,7 +5692,7 @@
         <v>39295</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C163" s="13">
         <v>1.25</v>
@@ -5716,13 +5734,13 @@
       <c r="I164" s="13"/>
       <c r="J164" s="11"/>
       <c r="K164" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="38">
@@ -5744,7 +5762,7 @@
         <v>39356</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -5768,7 +5786,7 @@
         <v>39387</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C167" s="13">
         <v>1.25</v>
@@ -5792,7 +5810,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="38">
@@ -5836,7 +5854,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="38">
@@ -5855,7 +5873,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5898,7 +5916,7 @@
       <c r="I172" s="13"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -5906,7 +5924,7 @@
         <v>39479</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C173" s="13">
         <v>1.25</v>
@@ -5930,7 +5948,7 @@
         <v>39508</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C174" s="13">
         <v>1.25</v>
@@ -5952,7 +5970,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="38">
@@ -5974,7 +5992,7 @@
         <v>39539</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C176" s="13">
         <v>1.25</v>
@@ -5998,7 +6016,7 @@
         <v>39569</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
@@ -6036,7 +6054,7 @@
       <c r="I178" s="13"/>
       <c r="J178" s="11"/>
       <c r="K178" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -6058,13 +6076,13 @@
       <c r="I179" s="13"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="38">
@@ -6086,7 +6104,7 @@
         <v>39600</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" s="13">
         <v>1.25</v>
@@ -6128,13 +6146,13 @@
       <c r="I182" s="13"/>
       <c r="J182" s="11"/>
       <c r="K182" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="38">
@@ -6156,7 +6174,7 @@
         <v>39661</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C184" s="13">
         <v>1.25</v>
@@ -6198,7 +6216,7 @@
       <c r="I185" s="13"/>
       <c r="J185" s="11"/>
       <c r="K185" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -6220,13 +6238,13 @@
       <c r="I186" s="13"/>
       <c r="J186" s="11"/>
       <c r="K186" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="38">
@@ -6248,7 +6266,7 @@
         <v>39722</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C188" s="13">
         <v>1.25</v>
@@ -6314,7 +6332,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="38">
@@ -6333,7 +6351,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6358,7 +6376,7 @@
         <v>39814</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C193" s="13">
         <v>1.25</v>
@@ -6382,7 +6400,7 @@
         <v>39845</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
@@ -6406,7 +6424,7 @@
         <v>39873</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C195" s="13">
         <v>1.25</v>
@@ -6430,7 +6448,7 @@
         <v>39904</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C196" s="13">
         <v>1.25</v>
@@ -6476,7 +6494,7 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="38">
@@ -6498,7 +6516,7 @@
         <v>39965</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
@@ -6522,7 +6540,7 @@
         <v>39995</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -6546,7 +6564,7 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="38">
@@ -6568,7 +6586,7 @@
         <v>40026</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
@@ -6610,13 +6628,13 @@
       <c r="I203" s="13"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="38">
@@ -6656,13 +6674,13 @@
       <c r="I205" s="13"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="38">
@@ -6684,7 +6702,7 @@
         <v>40118</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
@@ -6726,13 +6744,13 @@
       <c r="I208" s="13"/>
       <c r="J208" s="11"/>
       <c r="K208" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="38">
@@ -6751,7 +6769,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6776,7 +6794,7 @@
         <v>40179</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C211" s="13">
         <v>1.25</v>
@@ -6800,7 +6818,7 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="38">
@@ -7040,7 +7058,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7103,7 +7121,7 @@
       <c r="I226" s="13"/>
       <c r="J226" s="11"/>
       <c r="K226" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
@@ -7111,7 +7129,7 @@
         <v>40603</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C227" s="13">
         <v>1.25</v>
@@ -7135,7 +7153,7 @@
         <v>40634</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -7175,13 +7193,13 @@
       <c r="I229" s="13"/>
       <c r="J229" s="11"/>
       <c r="K229" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="38">
@@ -7203,7 +7221,7 @@
         <v>40695</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -7227,7 +7245,7 @@
         <v>40725</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C232" s="13">
         <v>1.25</v>
@@ -7251,7 +7269,7 @@
         <v>40756</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C233" s="13">
         <v>1.25</v>
@@ -7275,7 +7293,7 @@
         <v>40787</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C234" s="13">
         <v>1.25</v>
@@ -7299,7 +7317,7 @@
         <v>40817</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C235" s="13">
         <v>1.25</v>
@@ -7323,7 +7341,7 @@
         <v>40848</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -7347,7 +7365,7 @@
         <v>40878</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C237" s="13">
         <v>1.25</v>
@@ -7368,7 +7386,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -7393,7 +7411,7 @@
         <v>40909</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
@@ -7417,7 +7435,7 @@
         <v>40940</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -7433,13 +7451,13 @@
       <c r="I240" s="13"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="38">
@@ -7461,7 +7479,7 @@
         <v>40969</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C242" s="13">
         <v>1.25</v>
@@ -7485,7 +7503,7 @@
         <v>41000</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -7509,7 +7527,7 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="38">
@@ -7547,13 +7565,13 @@
       <c r="I245" s="13"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C246" s="13"/>
       <c r="D246" s="38">
@@ -7575,7 +7593,7 @@
         <v>41061</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C247" s="13">
         <v>1.25</v>
@@ -7617,13 +7635,13 @@
       <c r="I248" s="13"/>
       <c r="J248" s="11"/>
       <c r="K248" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C249" s="13"/>
       <c r="D249" s="38">
@@ -7645,7 +7663,7 @@
         <v>41122</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C250" s="13">
         <v>1.25</v>
@@ -7687,13 +7705,13 @@
       <c r="I251" s="13"/>
       <c r="J251" s="11"/>
       <c r="K251" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="38">
@@ -7730,13 +7748,13 @@
       <c r="I253" s="13"/>
       <c r="J253" s="11"/>
       <c r="K253" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="38">
@@ -7755,7 +7773,7 @@
         <v>41214</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C255" s="13">
         <v>1.25</v>
@@ -7779,7 +7797,7 @@
         <v>41244</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -7800,7 +7818,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7825,7 +7843,7 @@
         <v>41275</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C258" s="13">
         <v>1.25</v>
@@ -7849,7 +7867,7 @@
         <v>41306</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C259" s="13">
         <v>1.25</v>
@@ -7873,7 +7891,7 @@
         <v>41334</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -7915,13 +7933,13 @@
       <c r="I261" s="13"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="38">
@@ -7940,7 +7958,7 @@
         <v>41395</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C263" s="13">
         <v>1.25</v>
@@ -7964,7 +7982,7 @@
         <v>41426</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -8006,13 +8024,13 @@
       <c r="I265" s="13"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="38">
@@ -8031,7 +8049,7 @@
         <v>41487</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -8055,7 +8073,7 @@
         <v>41518</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -8079,7 +8097,7 @@
         <v>41548</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C269" s="13">
         <v>1.25</v>
@@ -8103,7 +8121,7 @@
         <v>41579</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
@@ -8145,13 +8163,13 @@
       <c r="I271" s="13"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272" s="13"/>
       <c r="D272" s="38">
@@ -8167,7 +8185,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -8210,7 +8228,7 @@
       <c r="I274" s="13"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
@@ -8274,7 +8292,7 @@
       <c r="I277" s="13"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
@@ -8293,7 +8311,7 @@
       <c r="I278" s="13"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
@@ -8310,7 +8328,7 @@
       <c r="I279" s="13"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
@@ -8396,7 +8414,7 @@
       <c r="I283" s="13"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -8404,7 +8422,7 @@
         <v>41883</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -8441,13 +8459,13 @@
       <c r="I285" s="13"/>
       <c r="J285" s="11"/>
       <c r="K285" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="38"/>
@@ -8488,7 +8506,7 @@
         <v>41944</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -8506,7 +8524,7 @@
       <c r="I288" s="13"/>
       <c r="J288" s="11"/>
       <c r="K288" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -8514,7 +8532,7 @@
         <v>41974</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -8537,7 +8555,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -8600,7 +8618,7 @@
       <c r="I292" s="13"/>
       <c r="J292" s="11"/>
       <c r="K292" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -8608,7 +8626,7 @@
         <v>42064</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -8646,7 +8664,7 @@
       <c r="I294" s="13"/>
       <c r="J294" s="11"/>
       <c r="K294" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -8752,7 +8770,7 @@
       <c r="I299" s="13"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -8798,13 +8816,13 @@
       <c r="I301" s="13"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="38">
@@ -8820,7 +8838,7 @@
       <c r="I302" s="13"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -8848,7 +8866,7 @@
         <v>42339</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C304" s="13">
         <v>1.25</v>
@@ -8869,7 +8887,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -9014,7 +9032,7 @@
         <v>42552</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -9032,7 +9050,7 @@
       <c r="I312" s="13"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
@@ -9098,7 +9116,7 @@
       <c r="I315" s="13"/>
       <c r="J315" s="11"/>
       <c r="K315" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
@@ -9143,7 +9161,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -10903,13 +10921,13 @@
       <c r="K402" s="11"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A403" s="67"/>
-      <c r="B403" s="68" t="s">
-        <v>292</v>
-      </c>
-      <c r="C403" s="69"/>
-      <c r="D403" s="68"/>
-      <c r="E403" s="70"/>
+      <c r="A403" s="56"/>
+      <c r="B403" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="C403" s="58"/>
+      <c r="D403" s="57"/>
+      <c r="E403" s="59"/>
       <c r="F403" s="11"/>
       <c r="G403" s="13"/>
       <c r="H403" s="11"/>
@@ -10921,14 +10939,14 @@
       <c r="A404" s="39"/>
       <c r="B404" s="11"/>
       <c r="C404" s="13"/>
-      <c r="D404" s="71" t="s">
-        <v>293</v>
+      <c r="D404" s="60" t="s">
+        <v>294</v>
       </c>
       <c r="E404" s="9"/>
       <c r="F404" s="11"/>
       <c r="G404" s="13"/>
-      <c r="H404" s="71" t="s">
-        <v>294</v>
+      <c r="H404" s="60" t="s">
+        <v>295</v>
       </c>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
@@ -10938,18 +10956,18 @@
       <c r="A405" s="39"/>
       <c r="B405" s="11"/>
       <c r="C405" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D405" s="11"/>
       <c r="E405" s="9"/>
       <c r="F405" s="11"/>
-      <c r="G405" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="H405" s="68"/>
-      <c r="I405" s="70"/>
-      <c r="J405" s="68"/>
-      <c r="K405" s="72"/>
+      <c r="G405" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="H405" s="57"/>
+      <c r="I405" s="59"/>
+      <c r="J405" s="57"/>
+      <c r="K405" s="61"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="39"/>
@@ -11221,7 +11239,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -11236,10 +11254,10 @@
 CITY OF TAGAYTAY
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
-PREPARED BY: ___________________
+PREPARED BY: &amp;UJUEL D. COPER&amp;U
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                              OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -11252,7 +11270,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11270,17 +11288,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="J1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -11312,8 +11330,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11">
+        <v>47.363</v>
+      </c>
+      <c r="B3" s="11">
+        <v>130.233</v>
+      </c>
       <c r="D3" s="11">
         <v>2</v>
       </c>
@@ -11346,11 +11368,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>293</v>
+      </c>
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -11364,14 +11389,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>418.13599999999991</v>
+      </c>
       <c r="C7" s="36">
         <v>1</v>
       </c>
